--- a/Surveys/08_06_2022_Tracer_Survey.xlsx
+++ b/Surveys/08_06_2022_Tracer_Survey.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nicol\Documents\GitHub\RFID_tracers\Surveys\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tacob\Documents\GitHub\RFID_tracers\Surveys\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F62D97FA-4A06-451B-8BA5-25DC77908503}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F3CC841-9563-4DA0-9E38-9B3747000E16}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{70E5BDF7-C89A-4F31-9C05-0B97409B7AAF}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{70E5BDF7-C89A-4F31-9C05-0B97409B7AAF}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="288" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="304" uniqueCount="60">
   <si>
     <t>Begin</t>
   </si>
@@ -198,6 +198,24 @@
   </si>
   <si>
     <t>H3</t>
+  </si>
+  <si>
+    <t>Nicole Revisit.</t>
+  </si>
+  <si>
+    <t>Comment</t>
+  </si>
+  <si>
+    <t>Wrong Refrence Points?</t>
+  </si>
+  <si>
+    <t>Extremely small point. Lengths cannot be read.</t>
+  </si>
+  <si>
+    <t>No Distinct Triangle.</t>
+  </si>
+  <si>
+    <t>Small Triangle.</t>
   </si>
 </sst>
 </file>
@@ -384,7 +402,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -441,6 +459,12 @@
     <xf numFmtId="0" fontId="0" fillId="13" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -468,12 +492,7 @@
     <xf numFmtId="0" fontId="0" fillId="12" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2610,8 +2629,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{03C285C5-6F89-4819-AAA1-AF8147931457}">
   <dimension ref="A1:O115"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="N61" sqref="N61"/>
+    <sheetView tabSelected="1" topLeftCell="E78" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="O110" sqref="O110:O111"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2623,7 +2642,7 @@
     <col min="8" max="8" width="12.6640625" customWidth="1"/>
     <col min="9" max="9" width="10.21875" customWidth="1"/>
     <col min="10" max="10" width="9.6640625" customWidth="1"/>
-    <col min="15" max="15" width="17.77734375" customWidth="1"/>
+    <col min="15" max="15" width="23.21875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.3">
@@ -2684,28 +2703,28 @@
       <c r="A12" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="B12" s="22" t="s">
+      <c r="B12" s="24" t="s">
         <v>28</v>
       </c>
-      <c r="C12" s="22"/>
-      <c r="D12" s="22"/>
-      <c r="E12" s="31" t="s">
+      <c r="C12" s="24"/>
+      <c r="D12" s="24"/>
+      <c r="E12" s="23" t="s">
         <v>46</v>
       </c>
-      <c r="F12" s="31"/>
-      <c r="G12" s="31" t="s">
+      <c r="F12" s="23"/>
+      <c r="G12" s="23" t="s">
         <v>47</v>
       </c>
-      <c r="H12" s="31"/>
-      <c r="I12" s="31"/>
-      <c r="J12" s="31"/>
-      <c r="K12" s="31"/>
-      <c r="L12" s="31" t="s">
+      <c r="H12" s="23"/>
+      <c r="I12" s="23"/>
+      <c r="J12" s="23"/>
+      <c r="K12" s="23"/>
+      <c r="L12" s="23" t="s">
         <v>48</v>
       </c>
-      <c r="M12" s="31"/>
-      <c r="N12" s="31"/>
-      <c r="O12" s="31"/>
+      <c r="M12" s="23"/>
+      <c r="N12" s="23"/>
+      <c r="O12" s="23"/>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A13" s="5" t="s">
@@ -2720,10 +2739,10 @@
       <c r="D13" s="5">
         <v>6</v>
       </c>
-      <c r="E13" s="32" t="s">
+      <c r="E13" s="22" t="s">
         <v>30</v>
       </c>
-      <c r="F13" s="32" t="s">
+      <c r="F13" s="22" t="s">
         <v>31</v>
       </c>
       <c r="G13" s="21" t="s">
@@ -2751,7 +2770,7 @@
         <v>38</v>
       </c>
       <c r="O13" s="21" t="s">
-        <v>39</v>
+        <v>55</v>
       </c>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.3">
@@ -2767,13 +2786,27 @@
       <c r="D14" s="8">
         <v>254</v>
       </c>
-      <c r="E14" s="6"/>
-      <c r="F14" s="6"/>
-      <c r="G14" s="17"/>
-      <c r="H14" s="17"/>
-      <c r="I14" s="17"/>
-      <c r="J14" s="17"/>
-      <c r="K14" s="17"/>
+      <c r="E14" s="6">
+        <v>475293.967</v>
+      </c>
+      <c r="F14" s="6">
+        <v>539903.31700000004</v>
+      </c>
+      <c r="G14" s="17">
+        <v>0.115</v>
+      </c>
+      <c r="H14" s="17">
+        <v>1.7250000000000001</v>
+      </c>
+      <c r="I14" s="17">
+        <v>0.36899999999999999</v>
+      </c>
+      <c r="J14" s="17">
+        <v>0.621</v>
+      </c>
+      <c r="K14" s="17">
+        <v>0.312</v>
+      </c>
       <c r="L14" s="17"/>
       <c r="M14" s="17"/>
       <c r="N14" s="17"/>
@@ -2802,7 +2835,9 @@
       <c r="L15" s="17"/>
       <c r="M15" s="17"/>
       <c r="N15" s="17"/>
-      <c r="O15" s="17"/>
+      <c r="O15" s="17" t="s">
+        <v>54</v>
+      </c>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A16" s="10">
@@ -2827,7 +2862,9 @@
       <c r="L16" s="17"/>
       <c r="M16" s="17"/>
       <c r="N16" s="17"/>
-      <c r="O16" s="17"/>
+      <c r="O16" s="33" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A17" s="10">
@@ -2902,7 +2939,9 @@
       <c r="L19" s="17"/>
       <c r="M19" s="17"/>
       <c r="N19" s="17"/>
-      <c r="O19" s="17"/>
+      <c r="O19" s="17" t="s">
+        <v>54</v>
+      </c>
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A20" s="11">
@@ -2917,13 +2956,27 @@
       <c r="D20" s="8">
         <v>173</v>
       </c>
-      <c r="E20" s="6"/>
-      <c r="F20" s="6"/>
-      <c r="G20" s="17"/>
-      <c r="H20" s="17"/>
-      <c r="I20" s="17"/>
-      <c r="J20" s="17"/>
-      <c r="K20" s="17"/>
+      <c r="E20" s="6">
+        <v>475293.59</v>
+      </c>
+      <c r="F20" s="6">
+        <v>539902.93799999997</v>
+      </c>
+      <c r="G20" s="17">
+        <v>0.12</v>
+      </c>
+      <c r="H20" s="17">
+        <v>1.645</v>
+      </c>
+      <c r="I20" s="17">
+        <v>0.434</v>
+      </c>
+      <c r="J20" s="17">
+        <v>0.36599999999999999</v>
+      </c>
+      <c r="K20" s="17">
+        <v>0.54600000000000004</v>
+      </c>
       <c r="L20" s="17"/>
       <c r="M20" s="17"/>
       <c r="N20" s="17"/>
@@ -2952,7 +3005,9 @@
       <c r="L21" s="17"/>
       <c r="M21" s="17"/>
       <c r="N21" s="17"/>
-      <c r="O21" s="17"/>
+      <c r="O21" s="17" t="s">
+        <v>54</v>
+      </c>
     </row>
     <row r="22" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A22" s="12">
@@ -2967,17 +3022,33 @@
       <c r="D22" s="8">
         <v>184</v>
       </c>
-      <c r="E22" s="13"/>
-      <c r="F22" s="6"/>
-      <c r="G22" s="17"/>
-      <c r="H22" s="17"/>
-      <c r="I22" s="17"/>
-      <c r="J22" s="17"/>
-      <c r="K22" s="17"/>
+      <c r="E22" s="6">
+        <v>475293.451</v>
+      </c>
+      <c r="F22" s="6">
+        <v>539903.06000000006</v>
+      </c>
+      <c r="G22" s="17">
+        <v>0</v>
+      </c>
+      <c r="H22" s="17">
+        <v>0</v>
+      </c>
+      <c r="I22" s="17">
+        <v>0</v>
+      </c>
+      <c r="J22" s="17">
+        <v>0</v>
+      </c>
+      <c r="K22" s="17">
+        <v>0</v>
+      </c>
       <c r="L22" s="17"/>
       <c r="M22" s="17"/>
       <c r="N22" s="17"/>
-      <c r="O22" s="17"/>
+      <c r="O22" s="17" t="s">
+        <v>57</v>
+      </c>
     </row>
     <row r="23" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A23" s="12">
@@ -3002,7 +3073,9 @@
       <c r="L23" s="17"/>
       <c r="M23" s="17"/>
       <c r="N23" s="17"/>
-      <c r="O23" s="17"/>
+      <c r="O23" s="17" t="s">
+        <v>54</v>
+      </c>
     </row>
     <row r="24" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A24" s="12">
@@ -3017,13 +3090,27 @@
       <c r="D24" s="8">
         <v>209</v>
       </c>
-      <c r="E24" s="6"/>
-      <c r="F24" s="6"/>
-      <c r="G24" s="17"/>
-      <c r="H24" s="17"/>
-      <c r="I24" s="17"/>
-      <c r="J24" s="17"/>
-      <c r="K24" s="17"/>
+      <c r="E24" s="6">
+        <v>475293.19300000003</v>
+      </c>
+      <c r="F24" s="6">
+        <v>539902.80500000005</v>
+      </c>
+      <c r="G24" s="17">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="H24" s="17">
+        <v>4.0339999999999998</v>
+      </c>
+      <c r="I24" s="17">
+        <v>1.881</v>
+      </c>
+      <c r="J24" s="17">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="K24" s="17">
+        <v>1.4999999999999999E-2</v>
+      </c>
       <c r="L24" s="17"/>
       <c r="M24" s="17"/>
       <c r="N24" s="17"/>
@@ -3052,7 +3139,9 @@
       <c r="L25" s="17"/>
       <c r="M25" s="17"/>
       <c r="N25" s="17"/>
-      <c r="O25" s="17"/>
+      <c r="O25" s="17" t="s">
+        <v>54</v>
+      </c>
     </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A26" s="12">
@@ -3167,13 +3256,27 @@
       <c r="D30" s="8">
         <v>171</v>
       </c>
-      <c r="E30" s="6"/>
-      <c r="F30" s="6"/>
-      <c r="G30" s="17"/>
-      <c r="H30" s="17"/>
-      <c r="I30" s="17"/>
-      <c r="J30" s="17"/>
-      <c r="K30" s="17"/>
+      <c r="E30" s="6">
+        <v>475292.788</v>
+      </c>
+      <c r="F30" s="6">
+        <v>539902.68000000005</v>
+      </c>
+      <c r="G30" s="17">
+        <v>0.85699999999999998</v>
+      </c>
+      <c r="H30" s="17">
+        <v>4.8630000000000004</v>
+      </c>
+      <c r="I30" s="17">
+        <v>1.74</v>
+      </c>
+      <c r="J30" s="17">
+        <v>0.97599999999999998</v>
+      </c>
+      <c r="K30" s="17">
+        <v>0.80800000000000005</v>
+      </c>
       <c r="L30" s="17"/>
       <c r="M30" s="17"/>
       <c r="N30" s="17"/>
@@ -3267,13 +3370,27 @@
       <c r="D34" s="8">
         <v>135</v>
       </c>
-      <c r="E34" s="6"/>
-      <c r="F34" s="6"/>
-      <c r="G34" s="17"/>
-      <c r="H34" s="17"/>
-      <c r="I34" s="17"/>
-      <c r="J34" s="17"/>
-      <c r="K34" s="17"/>
+      <c r="E34" s="6">
+        <v>475292.984</v>
+      </c>
+      <c r="F34" s="6">
+        <v>539902.326</v>
+      </c>
+      <c r="G34" s="17">
+        <v>3.1E-2</v>
+      </c>
+      <c r="H34" s="17">
+        <v>1.7649999999999999</v>
+      </c>
+      <c r="I34" s="17">
+        <v>0.82599999999999996</v>
+      </c>
+      <c r="J34" s="17">
+        <v>7.3999999999999996E-2</v>
+      </c>
+      <c r="K34" s="17">
+        <v>7.1999999999999995E-2</v>
+      </c>
       <c r="L34" s="17"/>
       <c r="M34" s="17"/>
       <c r="N34" s="17"/>
@@ -3308,28 +3425,28 @@
       <c r="A37" s="15" t="s">
         <v>33</v>
       </c>
-      <c r="B37" s="23" t="s">
+      <c r="B37" s="25" t="s">
         <v>34</v>
       </c>
-      <c r="C37" s="23"/>
-      <c r="D37" s="23"/>
-      <c r="E37" s="31" t="s">
+      <c r="C37" s="25"/>
+      <c r="D37" s="25"/>
+      <c r="E37" s="23" t="s">
         <v>46</v>
       </c>
-      <c r="F37" s="31"/>
-      <c r="G37" s="31" t="s">
+      <c r="F37" s="23"/>
+      <c r="G37" s="23" t="s">
         <v>47</v>
       </c>
-      <c r="H37" s="31"/>
-      <c r="I37" s="31"/>
-      <c r="J37" s="31"/>
-      <c r="K37" s="31"/>
-      <c r="L37" s="31" t="s">
+      <c r="H37" s="23"/>
+      <c r="I37" s="23"/>
+      <c r="J37" s="23"/>
+      <c r="K37" s="23"/>
+      <c r="L37" s="23" t="s">
         <v>48</v>
       </c>
-      <c r="M37" s="31"/>
-      <c r="N37" s="31"/>
-      <c r="O37" s="31"/>
+      <c r="M37" s="23"/>
+      <c r="N37" s="23"/>
+      <c r="O37" s="23"/>
     </row>
     <row r="38" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A38" s="5" t="s">
@@ -3344,10 +3461,10 @@
       <c r="D38" s="5">
         <v>6</v>
       </c>
-      <c r="E38" s="32" t="s">
+      <c r="E38" s="22" t="s">
         <v>30</v>
       </c>
-      <c r="F38" s="32" t="s">
+      <c r="F38" s="22" t="s">
         <v>31</v>
       </c>
       <c r="G38" s="21" t="s">
@@ -3391,13 +3508,27 @@
       <c r="D39" s="8">
         <v>124</v>
       </c>
-      <c r="E39" s="6"/>
-      <c r="F39" s="6"/>
-      <c r="G39" s="17"/>
-      <c r="H39" s="17"/>
-      <c r="I39" s="17"/>
-      <c r="J39" s="17"/>
-      <c r="K39" s="17"/>
+      <c r="E39" s="6">
+        <v>475292.701</v>
+      </c>
+      <c r="F39" s="6">
+        <v>539902.88199999998</v>
+      </c>
+      <c r="G39" s="17">
+        <v>1.4E-2</v>
+      </c>
+      <c r="H39" s="17">
+        <v>0.749</v>
+      </c>
+      <c r="I39" s="17">
+        <v>0.105</v>
+      </c>
+      <c r="J39" s="17">
+        <v>7.6999999999999999E-2</v>
+      </c>
+      <c r="K39" s="17">
+        <v>0.21199999999999999</v>
+      </c>
       <c r="L39" s="17"/>
       <c r="M39" s="17"/>
       <c r="N39" s="17"/>
@@ -3416,13 +3547,27 @@
       <c r="D40" s="8">
         <v>142</v>
       </c>
-      <c r="E40" s="6"/>
-      <c r="F40" s="6"/>
-      <c r="G40" s="17"/>
-      <c r="H40" s="17"/>
-      <c r="I40" s="17"/>
-      <c r="J40" s="17"/>
-      <c r="K40" s="17"/>
+      <c r="E40" s="6">
+        <v>475292.87900000002</v>
+      </c>
+      <c r="F40" s="6">
+        <v>539902.86499999999</v>
+      </c>
+      <c r="G40" s="17">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="H40" s="17">
+        <v>1.1559999999999999</v>
+      </c>
+      <c r="I40" s="17">
+        <v>5.7000000000000002E-2</v>
+      </c>
+      <c r="J40" s="17">
+        <v>5.2999999999999999E-2</v>
+      </c>
+      <c r="K40" s="17">
+        <v>0.28299999999999997</v>
+      </c>
       <c r="L40" s="17"/>
       <c r="M40" s="17"/>
       <c r="N40" s="17"/>
@@ -3441,13 +3586,27 @@
       <c r="D41" s="8">
         <v>176</v>
       </c>
-      <c r="E41" s="6"/>
-      <c r="F41" s="6"/>
-      <c r="G41" s="17"/>
-      <c r="H41" s="17"/>
-      <c r="I41" s="17"/>
-      <c r="J41" s="17"/>
-      <c r="K41" s="17"/>
+      <c r="E41" s="6">
+        <v>475292.84600000002</v>
+      </c>
+      <c r="F41" s="6">
+        <v>539903.40500000003</v>
+      </c>
+      <c r="G41" s="17">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="H41" s="17">
+        <v>0.81299999999999994</v>
+      </c>
+      <c r="I41" s="17">
+        <v>2.5999999999999999E-2</v>
+      </c>
+      <c r="J41" s="17">
+        <v>2.4E-2</v>
+      </c>
+      <c r="K41" s="17">
+        <v>0.24099999999999999</v>
+      </c>
       <c r="L41" s="17"/>
       <c r="M41" s="17"/>
       <c r="N41" s="17"/>
@@ -3466,13 +3625,27 @@
       <c r="D42" s="8">
         <v>138</v>
       </c>
-      <c r="E42" s="6"/>
-      <c r="F42" s="6"/>
-      <c r="G42" s="17"/>
-      <c r="H42" s="17"/>
-      <c r="I42" s="17"/>
-      <c r="J42" s="17"/>
-      <c r="K42" s="17"/>
+      <c r="E42" s="6">
+        <v>475292.79100000003</v>
+      </c>
+      <c r="F42" s="6">
+        <v>539903.00899999996</v>
+      </c>
+      <c r="G42" s="17">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="H42" s="17">
+        <v>0.52900000000000003</v>
+      </c>
+      <c r="I42" s="17">
+        <v>3.2000000000000001E-2</v>
+      </c>
+      <c r="J42" s="17">
+        <v>3.7999999999999999E-2</v>
+      </c>
+      <c r="K42" s="17">
+        <v>0.16600000000000001</v>
+      </c>
       <c r="L42" s="17"/>
       <c r="M42" s="17"/>
       <c r="N42" s="17"/>
@@ -3491,13 +3664,27 @@
       <c r="D43" s="8">
         <v>87</v>
       </c>
-      <c r="E43" s="6"/>
-      <c r="F43" s="6"/>
-      <c r="G43" s="17"/>
-      <c r="H43" s="17"/>
-      <c r="I43" s="17"/>
-      <c r="J43" s="17"/>
-      <c r="K43" s="17"/>
+      <c r="E43" s="6">
+        <v>475292.587</v>
+      </c>
+      <c r="F43" s="6">
+        <v>539902.49399999995</v>
+      </c>
+      <c r="G43" s="17">
+        <v>0.01</v>
+      </c>
+      <c r="H43" s="17">
+        <v>0.55200000000000005</v>
+      </c>
+      <c r="I43" s="17">
+        <v>0.112</v>
+      </c>
+      <c r="J43" s="17">
+        <v>8.3000000000000004E-2</v>
+      </c>
+      <c r="K43" s="17">
+        <v>0.17499999999999999</v>
+      </c>
       <c r="L43" s="17"/>
       <c r="M43" s="17"/>
       <c r="N43" s="17"/>
@@ -3526,7 +3713,9 @@
       <c r="L44" s="17"/>
       <c r="M44" s="17"/>
       <c r="N44" s="17"/>
-      <c r="O44" s="17"/>
+      <c r="O44" s="17" t="s">
+        <v>54</v>
+      </c>
     </row>
     <row r="45" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A45" s="12">
@@ -3576,7 +3765,9 @@
       <c r="L46" s="17"/>
       <c r="M46" s="17"/>
       <c r="N46" s="17"/>
-      <c r="O46" s="17"/>
+      <c r="O46" s="17" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="47" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A47" s="12">
@@ -3591,13 +3782,27 @@
       <c r="D47" s="8">
         <v>186</v>
       </c>
-      <c r="E47" s="13"/>
-      <c r="F47" s="6"/>
-      <c r="G47" s="17"/>
-      <c r="H47" s="17"/>
-      <c r="I47" s="17"/>
-      <c r="J47" s="17"/>
-      <c r="K47" s="17"/>
+      <c r="E47" s="13">
+        <v>475293.24</v>
+      </c>
+      <c r="F47" s="6">
+        <v>539903.32299999997</v>
+      </c>
+      <c r="G47" s="17">
+        <v>0</v>
+      </c>
+      <c r="H47" s="17">
+        <v>3.3000000000000002E-2</v>
+      </c>
+      <c r="I47" s="17">
+        <v>0.01</v>
+      </c>
+      <c r="J47" s="17">
+        <v>8.9999999999999993E-3</v>
+      </c>
+      <c r="K47" s="17">
+        <v>6.0000000000000001E-3</v>
+      </c>
       <c r="L47" s="17"/>
       <c r="M47" s="17"/>
       <c r="N47" s="17"/>
@@ -3616,13 +3821,27 @@
       <c r="D48" s="8">
         <v>145</v>
       </c>
-      <c r="E48" s="6"/>
-      <c r="F48" s="6"/>
-      <c r="G48" s="17"/>
-      <c r="H48" s="17"/>
-      <c r="I48" s="17"/>
-      <c r="J48" s="17"/>
-      <c r="K48" s="17"/>
+      <c r="E48" s="6">
+        <v>475292.86099999998</v>
+      </c>
+      <c r="F48" s="6">
+        <v>539903.02</v>
+      </c>
+      <c r="G48" s="17">
+        <v>2E-3</v>
+      </c>
+      <c r="H48" s="17">
+        <v>0.61599999999999999</v>
+      </c>
+      <c r="I48" s="17">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="J48" s="17">
+        <v>1.6E-2</v>
+      </c>
+      <c r="K48" s="17">
+        <v>0.218</v>
+      </c>
       <c r="L48" s="17"/>
       <c r="M48" s="17"/>
       <c r="N48" s="17"/>
@@ -3641,13 +3860,27 @@
       <c r="D49" s="8">
         <v>119</v>
       </c>
-      <c r="E49" s="6"/>
-      <c r="F49" s="6"/>
-      <c r="G49" s="17"/>
-      <c r="H49" s="17"/>
-      <c r="I49" s="17"/>
-      <c r="J49" s="17"/>
-      <c r="K49" s="17"/>
+      <c r="E49" s="6">
+        <v>475292.84</v>
+      </c>
+      <c r="F49" s="6">
+        <v>539902.57999999996</v>
+      </c>
+      <c r="G49" s="17">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="H49" s="17">
+        <v>0.94199999999999995</v>
+      </c>
+      <c r="I49" s="17">
+        <v>6.6000000000000003E-2</v>
+      </c>
+      <c r="J49" s="17">
+        <v>7.1999999999999995E-2</v>
+      </c>
+      <c r="K49" s="17">
+        <v>0.38400000000000001</v>
+      </c>
       <c r="L49" s="17"/>
       <c r="M49" s="17"/>
       <c r="N49" s="17"/>
@@ -3666,13 +3899,27 @@
       <c r="D50" s="8">
         <v>85</v>
       </c>
-      <c r="E50" s="6"/>
-      <c r="F50" s="6"/>
-      <c r="G50" s="17"/>
-      <c r="H50" s="17"/>
-      <c r="I50" s="17"/>
-      <c r="J50" s="17"/>
-      <c r="K50" s="17"/>
+      <c r="E50" s="6">
+        <v>475292.647</v>
+      </c>
+      <c r="F50" s="6">
+        <v>539902.42000000004</v>
+      </c>
+      <c r="G50" s="17">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="H50" s="17">
+        <v>0.3</v>
+      </c>
+      <c r="I50" s="17">
+        <v>0.05</v>
+      </c>
+      <c r="J50" s="17">
+        <v>4.1000000000000002E-2</v>
+      </c>
+      <c r="K50" s="17">
+        <v>0.108</v>
+      </c>
       <c r="L50" s="17"/>
       <c r="M50" s="17"/>
       <c r="N50" s="17"/>
@@ -3691,13 +3938,27 @@
       <c r="D51" s="8">
         <v>100</v>
       </c>
-      <c r="E51" s="6"/>
-      <c r="F51" s="6"/>
-      <c r="G51" s="17"/>
-      <c r="H51" s="17"/>
-      <c r="I51" s="17"/>
-      <c r="J51" s="17"/>
-      <c r="K51" s="17"/>
+      <c r="E51" s="6">
+        <v>475292.696</v>
+      </c>
+      <c r="F51" s="6">
+        <v>539902.59699999995</v>
+      </c>
+      <c r="G51" s="17">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="H51" s="17">
+        <v>0.35099999999999998</v>
+      </c>
+      <c r="I51" s="17">
+        <v>3.9E-2</v>
+      </c>
+      <c r="J51" s="17">
+        <v>4.8000000000000001E-2</v>
+      </c>
+      <c r="K51" s="17">
+        <v>0.12</v>
+      </c>
       <c r="L51" s="17"/>
       <c r="M51" s="17"/>
       <c r="N51" s="17"/>
@@ -3716,13 +3977,27 @@
       <c r="D52" s="8">
         <v>109</v>
       </c>
-      <c r="E52" s="6"/>
-      <c r="F52" s="6"/>
-      <c r="G52" s="17"/>
-      <c r="H52" s="17"/>
-      <c r="I52" s="17"/>
-      <c r="J52" s="17"/>
-      <c r="K52" s="17"/>
+      <c r="E52" s="6">
+        <v>475292.85</v>
+      </c>
+      <c r="F52" s="6">
+        <v>539902.34699999995</v>
+      </c>
+      <c r="G52" s="17">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="H52" s="17">
+        <v>0.90100000000000002</v>
+      </c>
+      <c r="I52" s="17">
+        <v>7.2999999999999995E-2</v>
+      </c>
+      <c r="J52" s="17">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="K52" s="17">
+        <v>0.39700000000000002</v>
+      </c>
       <c r="L52" s="17"/>
       <c r="M52" s="17"/>
       <c r="N52" s="17"/>
@@ -3741,13 +4016,27 @@
       <c r="D53" s="8">
         <v>128</v>
       </c>
-      <c r="E53" s="6"/>
-      <c r="F53" s="6"/>
-      <c r="G53" s="17"/>
-      <c r="H53" s="17"/>
-      <c r="I53" s="17"/>
-      <c r="J53" s="17"/>
-      <c r="K53" s="17"/>
+      <c r="E53" s="6">
+        <v>475292.84</v>
+      </c>
+      <c r="F53" s="6">
+        <v>539902.74699999997</v>
+      </c>
+      <c r="G53" s="17">
+        <v>1.2E-2</v>
+      </c>
+      <c r="H53" s="17">
+        <v>0.89700000000000002</v>
+      </c>
+      <c r="I53" s="17">
+        <v>0.06</v>
+      </c>
+      <c r="J53" s="17">
+        <v>5.3999999999999999E-2</v>
+      </c>
+      <c r="K53" s="17">
+        <v>0.34300000000000003</v>
+      </c>
       <c r="L53" s="17"/>
       <c r="M53" s="17"/>
       <c r="N53" s="17"/>
@@ -3766,13 +4055,27 @@
       <c r="D54" s="8">
         <v>114</v>
       </c>
-      <c r="E54" s="6"/>
-      <c r="F54" s="6"/>
-      <c r="G54" s="17"/>
-      <c r="H54" s="17"/>
-      <c r="I54" s="17"/>
-      <c r="J54" s="17"/>
-      <c r="K54" s="17"/>
+      <c r="E54" s="6">
+        <v>475292.79200000002</v>
+      </c>
+      <c r="F54" s="6">
+        <v>539902.65099999995</v>
+      </c>
+      <c r="G54" s="17">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="H54" s="17">
+        <v>0.57299999999999995</v>
+      </c>
+      <c r="I54" s="17">
+        <v>4.3999999999999997E-2</v>
+      </c>
+      <c r="J54" s="17">
+        <v>4.9000000000000002E-2</v>
+      </c>
+      <c r="K54" s="17">
+        <v>0.216</v>
+      </c>
       <c r="L54" s="17"/>
       <c r="M54" s="17"/>
       <c r="N54" s="17"/>
@@ -3782,28 +4085,28 @@
       <c r="A56" s="18" t="s">
         <v>40</v>
       </c>
-      <c r="B56" s="24" t="s">
+      <c r="B56" s="26" t="s">
         <v>34</v>
       </c>
-      <c r="C56" s="24"/>
-      <c r="D56" s="24"/>
-      <c r="E56" s="31" t="s">
+      <c r="C56" s="26"/>
+      <c r="D56" s="26"/>
+      <c r="E56" s="23" t="s">
         <v>46</v>
       </c>
-      <c r="F56" s="31"/>
-      <c r="G56" s="31" t="s">
+      <c r="F56" s="23"/>
+      <c r="G56" s="23" t="s">
         <v>47</v>
       </c>
-      <c r="H56" s="31"/>
-      <c r="I56" s="31"/>
-      <c r="J56" s="31"/>
-      <c r="K56" s="31"/>
-      <c r="L56" s="31" t="s">
+      <c r="H56" s="23"/>
+      <c r="I56" s="23"/>
+      <c r="J56" s="23"/>
+      <c r="K56" s="23"/>
+      <c r="L56" s="23" t="s">
         <v>48</v>
       </c>
-      <c r="M56" s="31"/>
-      <c r="N56" s="31"/>
-      <c r="O56" s="31"/>
+      <c r="M56" s="23"/>
+      <c r="N56" s="23"/>
+      <c r="O56" s="23"/>
     </row>
     <row r="57" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A57" s="5" t="s">
@@ -3818,10 +4121,10 @@
       <c r="D57" s="5">
         <v>16</v>
       </c>
-      <c r="E57" s="32" t="s">
+      <c r="E57" s="22" t="s">
         <v>30</v>
       </c>
-      <c r="F57" s="32" t="s">
+      <c r="F57" s="22" t="s">
         <v>31</v>
       </c>
       <c r="G57" s="21" t="s">
@@ -3890,13 +4193,27 @@
       <c r="D59" s="8">
         <v>58</v>
       </c>
-      <c r="E59" s="6"/>
-      <c r="F59" s="6"/>
-      <c r="G59" s="17"/>
-      <c r="H59" s="17"/>
-      <c r="I59" s="17"/>
-      <c r="J59" s="17"/>
-      <c r="K59" s="17"/>
+      <c r="E59" s="6">
+        <v>475232.23599999998</v>
+      </c>
+      <c r="F59" s="6">
+        <v>539954.56299999997</v>
+      </c>
+      <c r="G59" s="17">
+        <v>8.9999999999999993E-3</v>
+      </c>
+      <c r="H59" s="17">
+        <v>0.58799999999999997</v>
+      </c>
+      <c r="I59" s="17">
+        <v>6.5000000000000002E-2</v>
+      </c>
+      <c r="J59" s="17">
+        <v>6.5000000000000002E-2</v>
+      </c>
+      <c r="K59" s="17">
+        <v>0.25900000000000001</v>
+      </c>
       <c r="L59" s="17"/>
       <c r="M59" s="17"/>
       <c r="N59" s="17"/>
@@ -3915,13 +4232,27 @@
       <c r="D60" s="8">
         <v>109</v>
       </c>
-      <c r="E60" s="6"/>
-      <c r="F60" s="6"/>
-      <c r="G60" s="17"/>
-      <c r="H60" s="17"/>
-      <c r="I60" s="17"/>
-      <c r="J60" s="17"/>
-      <c r="K60" s="17"/>
+      <c r="E60" s="6">
+        <v>475232.75799999997</v>
+      </c>
+      <c r="F60" s="6">
+        <v>539954.54799999995</v>
+      </c>
+      <c r="G60" s="17">
+        <v>8.9999999999999993E-3</v>
+      </c>
+      <c r="H60" s="17">
+        <v>0.99199999999999999</v>
+      </c>
+      <c r="I60" s="17">
+        <v>0.46600000000000003</v>
+      </c>
+      <c r="J60" s="17">
+        <v>3.5999999999999997E-2</v>
+      </c>
+      <c r="K60" s="17">
+        <v>3.6999999999999998E-2</v>
+      </c>
       <c r="L60" s="17"/>
       <c r="M60" s="17"/>
       <c r="N60" s="17"/>
@@ -3940,13 +4271,27 @@
       <c r="D61" s="8">
         <v>162</v>
       </c>
-      <c r="E61" s="6"/>
-      <c r="F61" s="6"/>
-      <c r="G61" s="17"/>
-      <c r="H61" s="17"/>
-      <c r="I61" s="17"/>
-      <c r="J61" s="17"/>
-      <c r="K61" s="17"/>
+      <c r="E61" s="6">
+        <v>475233.15299999999</v>
+      </c>
+      <c r="F61" s="6">
+        <v>539954.64199999999</v>
+      </c>
+      <c r="G61" s="17">
+        <v>6.6000000000000003E-2</v>
+      </c>
+      <c r="H61" s="17">
+        <v>3.0680000000000001</v>
+      </c>
+      <c r="I61" s="17">
+        <v>8.6999999999999994E-2</v>
+      </c>
+      <c r="J61" s="17">
+        <v>8.8999999999999996E-2</v>
+      </c>
+      <c r="K61" s="17">
+        <v>1.425</v>
+      </c>
       <c r="L61" s="17"/>
       <c r="M61" s="17"/>
       <c r="N61" s="17"/>
@@ -3965,13 +4310,27 @@
       <c r="D62" s="8">
         <v>107</v>
       </c>
-      <c r="E62" s="6"/>
-      <c r="F62" s="6"/>
-      <c r="G62" s="17"/>
-      <c r="H62" s="17"/>
-      <c r="I62" s="17"/>
-      <c r="J62" s="17"/>
-      <c r="K62" s="17"/>
+      <c r="E62" s="6">
+        <v>475232.772</v>
+      </c>
+      <c r="F62" s="6">
+        <v>539955.10400000005</v>
+      </c>
+      <c r="G62" s="17">
+        <v>1.4E-2</v>
+      </c>
+      <c r="H62" s="17">
+        <v>0.54500000000000004</v>
+      </c>
+      <c r="I62" s="17">
+        <v>0.14899999999999999</v>
+      </c>
+      <c r="J62" s="17">
+        <v>0.14099999999999999</v>
+      </c>
+      <c r="K62" s="17">
+        <v>0.17499999999999999</v>
+      </c>
       <c r="L62" s="17"/>
       <c r="M62" s="17"/>
       <c r="N62" s="17"/>
@@ -3990,13 +4349,27 @@
       <c r="D63" s="8">
         <v>103</v>
       </c>
-      <c r="E63" s="6"/>
-      <c r="F63" s="6"/>
-      <c r="G63" s="17"/>
-      <c r="H63" s="17"/>
-      <c r="I63" s="17"/>
-      <c r="J63" s="17"/>
-      <c r="K63" s="17"/>
+      <c r="E63" s="6">
+        <v>475232.72100000002</v>
+      </c>
+      <c r="F63" s="6">
+        <v>539954.85</v>
+      </c>
+      <c r="G63" s="17">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="H63" s="17">
+        <v>0.30299999999999999</v>
+      </c>
+      <c r="I63" s="17">
+        <v>6.6000000000000003E-2</v>
+      </c>
+      <c r="J63" s="17">
+        <v>7.4999999999999997E-2</v>
+      </c>
+      <c r="K63" s="17">
+        <v>0.105</v>
+      </c>
       <c r="L63" s="17"/>
       <c r="M63" s="17"/>
       <c r="N63" s="17"/>
@@ -4015,13 +4388,27 @@
       <c r="D64" s="8">
         <v>41</v>
       </c>
-      <c r="E64" s="6"/>
-      <c r="F64" s="6"/>
-      <c r="G64" s="17"/>
-      <c r="H64" s="17"/>
-      <c r="I64" s="17"/>
-      <c r="J64" s="17"/>
-      <c r="K64" s="17"/>
+      <c r="E64" s="6">
+        <v>475232.06199999998</v>
+      </c>
+      <c r="F64" s="6">
+        <v>539954.63300000003</v>
+      </c>
+      <c r="G64" s="17">
+        <v>1.2E-2</v>
+      </c>
+      <c r="H64" s="17">
+        <v>0.68700000000000006</v>
+      </c>
+      <c r="I64" s="17">
+        <v>7.9000000000000001E-2</v>
+      </c>
+      <c r="J64" s="17">
+        <v>7.6999999999999999E-2</v>
+      </c>
+      <c r="K64" s="17">
+        <v>0.3</v>
+      </c>
       <c r="L64" s="17"/>
       <c r="M64" s="17"/>
       <c r="N64" s="17"/>
@@ -4059,13 +4446,27 @@
       <c r="D66" s="8">
         <v>130</v>
       </c>
-      <c r="E66" s="13"/>
-      <c r="F66" s="6"/>
-      <c r="G66" s="17"/>
-      <c r="H66" s="17"/>
-      <c r="I66" s="17"/>
-      <c r="J66" s="17"/>
-      <c r="K66" s="17"/>
+      <c r="E66" s="13">
+        <v>475232.86099999998</v>
+      </c>
+      <c r="F66" s="6">
+        <v>539954.65399999998</v>
+      </c>
+      <c r="G66" s="17">
+        <v>0.05</v>
+      </c>
+      <c r="H66" s="17">
+        <v>2.512</v>
+      </c>
+      <c r="I66" s="17">
+        <v>8.1000000000000003E-2</v>
+      </c>
+      <c r="J66" s="17">
+        <v>8.3000000000000004E-2</v>
+      </c>
+      <c r="K66" s="17">
+        <v>1.1850000000000001</v>
+      </c>
       <c r="L66" s="17"/>
       <c r="M66" s="17"/>
       <c r="N66" s="17"/>
@@ -4084,13 +4485,27 @@
       <c r="D67" s="8">
         <v>81</v>
       </c>
-      <c r="E67" s="6"/>
-      <c r="F67" s="6"/>
-      <c r="G67" s="17"/>
-      <c r="H67" s="17"/>
-      <c r="I67" s="17"/>
-      <c r="J67" s="17"/>
-      <c r="K67" s="17"/>
+      <c r="E67" s="6">
+        <v>475232.435</v>
+      </c>
+      <c r="F67" s="6">
+        <v>539954.37199999997</v>
+      </c>
+      <c r="G67" s="17">
+        <v>0</v>
+      </c>
+      <c r="H67" s="17">
+        <v>0.11700000000000001</v>
+      </c>
+      <c r="I67" s="17">
+        <v>0.02</v>
+      </c>
+      <c r="J67" s="17">
+        <v>2.1000000000000001E-2</v>
+      </c>
+      <c r="K67" s="17">
+        <v>4.7E-2</v>
+      </c>
       <c r="L67" s="17"/>
       <c r="M67" s="17"/>
       <c r="N67" s="17"/>
@@ -4109,13 +4524,27 @@
       <c r="D68" s="8">
         <v>81</v>
       </c>
-      <c r="E68" s="6"/>
-      <c r="F68" s="6"/>
-      <c r="G68" s="17"/>
-      <c r="H68" s="17"/>
-      <c r="I68" s="17"/>
-      <c r="J68" s="17"/>
-      <c r="K68" s="17"/>
+      <c r="E68" s="6">
+        <v>475232.435</v>
+      </c>
+      <c r="F68" s="6">
+        <v>539954.37199999997</v>
+      </c>
+      <c r="G68" s="17">
+        <v>0</v>
+      </c>
+      <c r="H68" s="17">
+        <v>0.11700000000000001</v>
+      </c>
+      <c r="I68" s="17">
+        <v>0.02</v>
+      </c>
+      <c r="J68" s="17">
+        <v>2.1000000000000001E-2</v>
+      </c>
+      <c r="K68" s="17">
+        <v>4.7E-2</v>
+      </c>
       <c r="L68" s="17"/>
       <c r="M68" s="17"/>
       <c r="N68" s="17"/>
@@ -4134,13 +4563,27 @@
       <c r="D69" s="8">
         <v>128</v>
       </c>
-      <c r="E69" s="6"/>
-      <c r="F69" s="6"/>
-      <c r="G69" s="17"/>
-      <c r="H69" s="17"/>
-      <c r="I69" s="17"/>
-      <c r="J69" s="17"/>
-      <c r="K69" s="17"/>
+      <c r="E69" s="6">
+        <v>475232.89299999998</v>
+      </c>
+      <c r="F69" s="6">
+        <v>539954.60800000001</v>
+      </c>
+      <c r="G69" s="17">
+        <v>2.8000000000000001E-2</v>
+      </c>
+      <c r="H69" s="17">
+        <v>1.9830000000000001</v>
+      </c>
+      <c r="I69" s="17">
+        <v>5.8000000000000003E-2</v>
+      </c>
+      <c r="J69" s="17">
+        <v>5.8999999999999997E-2</v>
+      </c>
+      <c r="K69" s="17">
+        <v>0.93400000000000005</v>
+      </c>
       <c r="L69" s="17"/>
       <c r="M69" s="17"/>
       <c r="N69" s="17"/>
@@ -4159,13 +4602,27 @@
       <c r="D70" s="8">
         <v>221</v>
       </c>
-      <c r="E70" s="6"/>
-      <c r="F70" s="6"/>
-      <c r="G70" s="17"/>
-      <c r="H70" s="17"/>
-      <c r="I70" s="17"/>
-      <c r="J70" s="17"/>
-      <c r="K70" s="17"/>
+      <c r="E70" s="6">
+        <v>475233.41100000002</v>
+      </c>
+      <c r="F70" s="6">
+        <v>539954.777</v>
+      </c>
+      <c r="G70" s="17">
+        <v>0.47199999999999998</v>
+      </c>
+      <c r="H70" s="17">
+        <v>5.9450000000000003</v>
+      </c>
+      <c r="I70" s="17">
+        <v>0.33200000000000002</v>
+      </c>
+      <c r="J70" s="17">
+        <v>0.34499999999999997</v>
+      </c>
+      <c r="K70" s="17">
+        <v>2.661</v>
+      </c>
       <c r="L70" s="17"/>
       <c r="M70" s="17"/>
       <c r="N70" s="17"/>
@@ -4203,13 +4660,27 @@
       <c r="D72" s="8">
         <v>119</v>
       </c>
-      <c r="E72" s="6"/>
-      <c r="F72" s="6"/>
-      <c r="G72" s="17"/>
-      <c r="H72" s="17"/>
-      <c r="I72" s="17"/>
-      <c r="J72" s="17"/>
-      <c r="K72" s="17"/>
+      <c r="E72" s="6">
+        <v>475232.76299999998</v>
+      </c>
+      <c r="F72" s="6">
+        <v>539954.70900000003</v>
+      </c>
+      <c r="G72" s="17">
+        <v>2E-3</v>
+      </c>
+      <c r="H72" s="17">
+        <v>2.4300000000000002</v>
+      </c>
+      <c r="I72" s="17">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="J72" s="17">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="K72" s="17">
+        <v>1.1930000000000001</v>
+      </c>
       <c r="L72" s="17"/>
       <c r="M72" s="17"/>
       <c r="N72" s="17"/>
@@ -4228,13 +4699,27 @@
       <c r="D73" s="8">
         <v>120</v>
       </c>
-      <c r="E73" s="6"/>
-      <c r="F73" s="6"/>
-      <c r="G73" s="17"/>
-      <c r="H73" s="17"/>
-      <c r="I73" s="17"/>
-      <c r="J73" s="17"/>
-      <c r="K73" s="17"/>
+      <c r="E73" s="6">
+        <v>475232.87400000001</v>
+      </c>
+      <c r="F73" s="6">
+        <v>539955.07200000004</v>
+      </c>
+      <c r="G73" s="17">
+        <v>0</v>
+      </c>
+      <c r="H73" s="17">
+        <v>2E-3</v>
+      </c>
+      <c r="I73" s="17">
+        <v>1E-3</v>
+      </c>
+      <c r="J73" s="17">
+        <v>1E-3</v>
+      </c>
+      <c r="K73" s="17">
+        <v>1E-3</v>
+      </c>
       <c r="L73" s="17"/>
       <c r="M73" s="17"/>
       <c r="N73" s="17"/>
@@ -4282,7 +4767,9 @@
       <c r="L75" s="17"/>
       <c r="M75" s="17"/>
       <c r="N75" s="17"/>
-      <c r="O75" s="17"/>
+      <c r="O75" s="17" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="76" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A76" s="14">
@@ -4297,13 +4784,27 @@
       <c r="D76" s="8">
         <v>134</v>
       </c>
-      <c r="E76" s="6"/>
-      <c r="F76" s="6"/>
-      <c r="G76" s="17"/>
-      <c r="H76" s="17"/>
-      <c r="I76" s="17"/>
-      <c r="J76" s="17"/>
-      <c r="K76" s="17"/>
+      <c r="E76" s="6">
+        <v>475232.20600000001</v>
+      </c>
+      <c r="F76" s="6">
+        <v>539953.53399999999</v>
+      </c>
+      <c r="G76" s="17">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="H76" s="17">
+        <v>0.38700000000000001</v>
+      </c>
+      <c r="I76" s="17">
+        <v>0.10199999999999999</v>
+      </c>
+      <c r="J76" s="17">
+        <v>0.12</v>
+      </c>
+      <c r="K76" s="17">
+        <v>7.4999999999999997E-2</v>
+      </c>
       <c r="L76" s="17"/>
       <c r="M76" s="17"/>
       <c r="N76" s="17"/>
@@ -4313,28 +4814,28 @@
       <c r="A78" s="19" t="s">
         <v>42</v>
       </c>
-      <c r="B78" s="25" t="s">
+      <c r="B78" s="27" t="s">
         <v>34</v>
       </c>
-      <c r="C78" s="26"/>
-      <c r="D78" s="27"/>
-      <c r="E78" s="31" t="s">
+      <c r="C78" s="28"/>
+      <c r="D78" s="29"/>
+      <c r="E78" s="23" t="s">
         <v>46</v>
       </c>
-      <c r="F78" s="31"/>
-      <c r="G78" s="31" t="s">
+      <c r="F78" s="23"/>
+      <c r="G78" s="23" t="s">
         <v>47</v>
       </c>
-      <c r="H78" s="31"/>
-      <c r="I78" s="31"/>
-      <c r="J78" s="31"/>
-      <c r="K78" s="31"/>
-      <c r="L78" s="31" t="s">
+      <c r="H78" s="23"/>
+      <c r="I78" s="23"/>
+      <c r="J78" s="23"/>
+      <c r="K78" s="23"/>
+      <c r="L78" s="23" t="s">
         <v>48</v>
       </c>
-      <c r="M78" s="31"/>
-      <c r="N78" s="31"/>
-      <c r="O78" s="31"/>
+      <c r="M78" s="23"/>
+      <c r="N78" s="23"/>
+      <c r="O78" s="23"/>
     </row>
     <row r="79" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A79" s="5" t="s">
@@ -4349,10 +4850,10 @@
       <c r="D79" s="5">
         <v>22</v>
       </c>
-      <c r="E79" s="32" t="s">
+      <c r="E79" s="22" t="s">
         <v>30</v>
       </c>
-      <c r="F79" s="32" t="s">
+      <c r="F79" s="22" t="s">
         <v>31</v>
       </c>
       <c r="G79" s="21" t="s">
@@ -4396,13 +4897,27 @@
       <c r="D80" s="8">
         <v>178</v>
       </c>
-      <c r="E80" s="6"/>
-      <c r="F80" s="6"/>
-      <c r="G80" s="17"/>
-      <c r="H80" s="17"/>
-      <c r="I80" s="17"/>
-      <c r="J80" s="17"/>
-      <c r="K80" s="17"/>
+      <c r="E80" s="6">
+        <v>475235.201</v>
+      </c>
+      <c r="F80" s="6">
+        <v>539959.68700000003</v>
+      </c>
+      <c r="G80" s="17">
+        <v>0</v>
+      </c>
+      <c r="H80" s="17">
+        <v>0.113</v>
+      </c>
+      <c r="I80" s="17">
+        <v>2.8000000000000001E-2</v>
+      </c>
+      <c r="J80" s="17">
+        <v>0.03</v>
+      </c>
+      <c r="K80" s="17">
+        <v>1.7000000000000001E-2</v>
+      </c>
       <c r="L80" s="17"/>
       <c r="M80" s="17"/>
       <c r="N80" s="17"/>
@@ -4421,13 +4936,27 @@
       <c r="D81" s="8">
         <v>140</v>
       </c>
-      <c r="E81" s="6"/>
-      <c r="F81" s="6"/>
-      <c r="G81" s="17"/>
-      <c r="H81" s="17"/>
-      <c r="I81" s="17"/>
-      <c r="J81" s="17"/>
-      <c r="K81" s="17"/>
+      <c r="E81" s="6">
+        <v>475235.48499999999</v>
+      </c>
+      <c r="F81" s="6">
+        <v>539959.96200000006</v>
+      </c>
+      <c r="G81" s="17">
+        <v>0</v>
+      </c>
+      <c r="H81" s="17">
+        <v>8.8999999999999996E-2</v>
+      </c>
+      <c r="I81" s="17">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="J81" s="17">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="K81" s="17">
+        <v>0.04</v>
+      </c>
       <c r="L81" s="17"/>
       <c r="M81" s="17"/>
       <c r="N81" s="17"/>
@@ -4475,13 +5004,14 @@
       <c r="F83" s="6"/>
       <c r="G83" s="17"/>
       <c r="H83" s="17"/>
-      <c r="I83" s="17"/>
       <c r="J83" s="17"/>
       <c r="K83" s="17"/>
       <c r="L83" s="17"/>
       <c r="M83" s="17"/>
       <c r="N83" s="17"/>
-      <c r="O83" s="17"/>
+      <c r="O83" s="17" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="84" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A84" s="11">
@@ -4496,13 +5026,27 @@
       <c r="D84" s="8">
         <v>199</v>
       </c>
-      <c r="E84" s="6"/>
-      <c r="F84" s="6"/>
-      <c r="G84" s="17"/>
-      <c r="H84" s="17"/>
-      <c r="I84" s="17"/>
-      <c r="J84" s="17"/>
-      <c r="K84" s="17"/>
+      <c r="E84" s="6">
+        <v>475235.34399999998</v>
+      </c>
+      <c r="F84" s="6">
+        <v>539959.39899999998</v>
+      </c>
+      <c r="G84" s="17">
+        <v>8.9999999999999993E-3</v>
+      </c>
+      <c r="H84" s="17">
+        <v>0.86799999999999999</v>
+      </c>
+      <c r="I84" s="17">
+        <v>4.5999999999999999E-2</v>
+      </c>
+      <c r="J84" s="17">
+        <v>4.4999999999999998E-2</v>
+      </c>
+      <c r="K84" s="17">
+        <v>0.39500000000000002</v>
+      </c>
       <c r="L84" s="17"/>
       <c r="M84" s="17"/>
       <c r="N84" s="17"/>
@@ -4521,13 +5065,27 @@
       <c r="D85" s="8">
         <v>228</v>
       </c>
-      <c r="E85" s="6"/>
-      <c r="F85" s="6"/>
-      <c r="G85" s="17"/>
-      <c r="H85" s="17"/>
-      <c r="I85" s="17"/>
-      <c r="J85" s="17"/>
-      <c r="K85" s="17"/>
+      <c r="E85" s="6">
+        <v>475235.136</v>
+      </c>
+      <c r="F85" s="6">
+        <v>475235.136</v>
+      </c>
+      <c r="G85" s="17">
+        <v>3.4000000000000002E-2</v>
+      </c>
+      <c r="H85" s="17">
+        <v>1.823</v>
+      </c>
+      <c r="I85" s="17">
+        <v>7.5999999999999998E-2</v>
+      </c>
+      <c r="J85" s="17">
+        <v>7.8E-2</v>
+      </c>
+      <c r="K85" s="17">
+        <v>0.81</v>
+      </c>
       <c r="L85" s="17"/>
       <c r="M85" s="17"/>
       <c r="N85" s="17"/>
@@ -4546,13 +5104,27 @@
       <c r="D86" s="8">
         <v>142</v>
       </c>
-      <c r="E86" s="6"/>
-      <c r="F86" s="6"/>
-      <c r="G86" s="17"/>
-      <c r="H86" s="17"/>
-      <c r="I86" s="17"/>
-      <c r="J86" s="17"/>
-      <c r="K86" s="17"/>
+      <c r="E86" s="6">
+        <v>475235.43800000002</v>
+      </c>
+      <c r="F86" s="6">
+        <v>539960.01100000006</v>
+      </c>
+      <c r="G86" s="17">
+        <v>0</v>
+      </c>
+      <c r="H86" s="17">
+        <v>0.11600000000000001</v>
+      </c>
+      <c r="I86" s="17">
+        <v>2E-3</v>
+      </c>
+      <c r="J86" s="17">
+        <v>2E-3</v>
+      </c>
+      <c r="K86" s="17">
+        <v>5.5E-2</v>
+      </c>
       <c r="L86" s="17"/>
       <c r="M86" s="17"/>
       <c r="N86" s="17"/>
@@ -4621,13 +5193,27 @@
       <c r="D89" s="8">
         <v>234</v>
       </c>
-      <c r="E89" s="6"/>
-      <c r="F89" s="6"/>
-      <c r="G89" s="17"/>
-      <c r="H89" s="17"/>
-      <c r="I89" s="17"/>
-      <c r="J89" s="17"/>
-      <c r="K89" s="17"/>
+      <c r="E89" s="6">
+        <v>475235.37599999999</v>
+      </c>
+      <c r="F89" s="6">
+        <v>539959.20900000003</v>
+      </c>
+      <c r="G89" s="17">
+        <v>1.7999999999999999E-2</v>
+      </c>
+      <c r="H89" s="17">
+        <v>2.2829999999999999</v>
+      </c>
+      <c r="I89" s="17">
+        <v>3.2000000000000001E-2</v>
+      </c>
+      <c r="J89" s="17">
+        <v>3.2000000000000001E-2</v>
+      </c>
+      <c r="K89" s="17">
+        <v>1.1000000000000001</v>
+      </c>
       <c r="L89" s="17"/>
       <c r="M89" s="17"/>
       <c r="N89" s="17"/>
@@ -4646,13 +5232,27 @@
       <c r="D90" s="8">
         <v>140</v>
       </c>
-      <c r="E90" s="6"/>
-      <c r="F90" s="6"/>
-      <c r="G90" s="17"/>
-      <c r="H90" s="17"/>
-      <c r="I90" s="17"/>
-      <c r="J90" s="17"/>
-      <c r="K90" s="17"/>
+      <c r="E90" s="6">
+        <v>475235.45799999998</v>
+      </c>
+      <c r="F90" s="6">
+        <v>539960.02599999995</v>
+      </c>
+      <c r="G90" s="17">
+        <v>1E-3</v>
+      </c>
+      <c r="H90" s="17">
+        <v>0.318</v>
+      </c>
+      <c r="I90" s="17">
+        <v>0.01</v>
+      </c>
+      <c r="J90" s="17">
+        <v>0.01</v>
+      </c>
+      <c r="K90" s="17">
+        <v>0.153</v>
+      </c>
       <c r="L90" s="17"/>
       <c r="M90" s="17"/>
       <c r="N90" s="17"/>
@@ -4681,7 +5281,9 @@
       <c r="L91" s="17"/>
       <c r="M91" s="17"/>
       <c r="N91" s="17"/>
-      <c r="O91" s="17"/>
+      <c r="O91" s="17" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="92" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A92" s="14">
@@ -4696,13 +5298,27 @@
       <c r="D92" s="8">
         <v>226</v>
       </c>
-      <c r="E92" s="6"/>
-      <c r="F92" s="6"/>
-      <c r="G92" s="17"/>
-      <c r="H92" s="17"/>
-      <c r="I92" s="17"/>
-      <c r="J92" s="17"/>
-      <c r="K92" s="17"/>
+      <c r="E92" s="6">
+        <v>475235.18699999998</v>
+      </c>
+      <c r="F92" s="6">
+        <v>539959.39800000004</v>
+      </c>
+      <c r="G92" s="17">
+        <v>3.5999999999999997E-2</v>
+      </c>
+      <c r="H92" s="17">
+        <v>1.7310000000000001</v>
+      </c>
+      <c r="I92" s="17">
+        <v>8.6999999999999994E-2</v>
+      </c>
+      <c r="J92" s="17">
+        <v>9.0999999999999998E-2</v>
+      </c>
+      <c r="K92" s="17">
+        <v>0.76500000000000001</v>
+      </c>
       <c r="L92" s="17"/>
       <c r="M92" s="17"/>
       <c r="N92" s="17"/>
@@ -4721,17 +5337,33 @@
       <c r="D93" s="8">
         <v>142</v>
       </c>
-      <c r="E93" s="6"/>
-      <c r="F93" s="6"/>
-      <c r="G93" s="17"/>
-      <c r="H93" s="17"/>
-      <c r="I93" s="17"/>
-      <c r="J93" s="17"/>
-      <c r="K93" s="17"/>
+      <c r="E93" s="6">
+        <v>475235.59100000001</v>
+      </c>
+      <c r="F93" s="6">
+        <v>539959.78300000005</v>
+      </c>
+      <c r="G93" s="17">
+        <v>0</v>
+      </c>
+      <c r="H93" s="17">
+        <v>1E-3</v>
+      </c>
+      <c r="I93" s="17">
+        <v>0</v>
+      </c>
+      <c r="J93" s="17">
+        <v>0</v>
+      </c>
+      <c r="K93" s="17">
+        <v>0</v>
+      </c>
       <c r="L93" s="17"/>
       <c r="M93" s="17"/>
       <c r="N93" s="17"/>
-      <c r="O93" s="17"/>
+      <c r="O93" s="17" t="s">
+        <v>59</v>
+      </c>
     </row>
     <row r="94" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A94" s="14">
@@ -4771,13 +5403,27 @@
       <c r="D95" s="8">
         <v>142</v>
       </c>
-      <c r="E95" s="6"/>
-      <c r="F95" s="6"/>
-      <c r="G95" s="17"/>
-      <c r="H95" s="17"/>
-      <c r="I95" s="17"/>
-      <c r="J95" s="17"/>
-      <c r="K95" s="17"/>
+      <c r="E95" s="6">
+        <v>475235.59100000001</v>
+      </c>
+      <c r="F95" s="6">
+        <v>539959.78300000005</v>
+      </c>
+      <c r="G95" s="17">
+        <v>0</v>
+      </c>
+      <c r="H95" s="17">
+        <v>1E-3</v>
+      </c>
+      <c r="I95" s="17">
+        <v>0</v>
+      </c>
+      <c r="J95" s="17">
+        <v>0</v>
+      </c>
+      <c r="K95" s="17">
+        <v>0</v>
+      </c>
       <c r="L95" s="17"/>
       <c r="M95" s="17"/>
       <c r="N95" s="17"/>
@@ -4812,28 +5458,28 @@
       <c r="A98" s="20" t="s">
         <v>43</v>
       </c>
-      <c r="B98" s="28" t="s">
+      <c r="B98" s="30" t="s">
         <v>34</v>
       </c>
-      <c r="C98" s="29"/>
-      <c r="D98" s="30"/>
-      <c r="E98" s="31" t="s">
+      <c r="C98" s="31"/>
+      <c r="D98" s="32"/>
+      <c r="E98" s="23" t="s">
         <v>46</v>
       </c>
-      <c r="F98" s="31"/>
-      <c r="G98" s="31" t="s">
+      <c r="F98" s="23"/>
+      <c r="G98" s="23" t="s">
         <v>47</v>
       </c>
-      <c r="H98" s="31"/>
-      <c r="I98" s="31"/>
-      <c r="J98" s="31"/>
-      <c r="K98" s="31"/>
-      <c r="L98" s="31" t="s">
+      <c r="H98" s="23"/>
+      <c r="I98" s="23"/>
+      <c r="J98" s="23"/>
+      <c r="K98" s="23"/>
+      <c r="L98" s="23" t="s">
         <v>48</v>
       </c>
-      <c r="M98" s="31"/>
-      <c r="N98" s="31"/>
-      <c r="O98" s="31"/>
+      <c r="M98" s="23"/>
+      <c r="N98" s="23"/>
+      <c r="O98" s="23"/>
     </row>
     <row r="99" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A99" s="5" t="s">
@@ -4848,10 +5494,10 @@
       <c r="D99" s="5">
         <v>28</v>
       </c>
-      <c r="E99" s="32" t="s">
+      <c r="E99" s="22" t="s">
         <v>30</v>
       </c>
-      <c r="F99" s="32" t="s">
+      <c r="F99" s="22" t="s">
         <v>31</v>
       </c>
       <c r="G99" s="21" t="s">
@@ -4895,13 +5541,27 @@
       <c r="D100" s="8">
         <v>97</v>
       </c>
-      <c r="E100" s="6"/>
-      <c r="F100" s="6"/>
-      <c r="G100" s="17"/>
-      <c r="H100" s="17"/>
-      <c r="I100" s="17"/>
-      <c r="J100" s="17"/>
-      <c r="K100" s="17"/>
+      <c r="E100" s="6">
+        <v>475238.75300000003</v>
+      </c>
+      <c r="F100" s="6">
+        <v>539969.33499999996</v>
+      </c>
+      <c r="G100" s="17">
+        <v>1E-3</v>
+      </c>
+      <c r="H100" s="17">
+        <v>0.184</v>
+      </c>
+      <c r="I100" s="17">
+        <v>3.1E-2</v>
+      </c>
+      <c r="J100" s="17">
+        <v>3.2000000000000001E-2</v>
+      </c>
+      <c r="K100" s="17">
+        <v>7.3999999999999996E-2</v>
+      </c>
       <c r="L100" s="17"/>
       <c r="M100" s="17"/>
       <c r="N100" s="17"/>
@@ -4920,13 +5580,27 @@
       <c r="D101" s="8">
         <v>99</v>
       </c>
-      <c r="E101" s="6"/>
-      <c r="F101" s="6"/>
-      <c r="G101" s="17"/>
-      <c r="H101" s="17"/>
-      <c r="I101" s="17"/>
-      <c r="J101" s="17"/>
-      <c r="K101" s="17"/>
+      <c r="E101" s="6">
+        <v>475238.90899999999</v>
+      </c>
+      <c r="F101" s="6">
+        <v>539968.97499999998</v>
+      </c>
+      <c r="G101" s="17">
+        <v>0</v>
+      </c>
+      <c r="H101" s="17">
+        <v>8.6999999999999994E-2</v>
+      </c>
+      <c r="I101" s="17">
+        <v>0.02</v>
+      </c>
+      <c r="J101" s="17">
+        <v>2.9000000000000001E-2</v>
+      </c>
+      <c r="K101" s="17">
+        <v>2.3E-2</v>
+      </c>
       <c r="L101" s="17"/>
       <c r="M101" s="17"/>
       <c r="N101" s="17"/>
@@ -4945,13 +5619,27 @@
       <c r="D102" s="8">
         <v>114</v>
       </c>
-      <c r="E102" s="6"/>
-      <c r="F102" s="6"/>
-      <c r="G102" s="17"/>
-      <c r="H102" s="17"/>
-      <c r="I102" s="17"/>
-      <c r="J102" s="17"/>
-      <c r="K102" s="17"/>
+      <c r="E102" s="6">
+        <v>475238.98</v>
+      </c>
+      <c r="F102" s="6">
+        <v>539969.26599999995</v>
+      </c>
+      <c r="G102" s="17">
+        <v>0</v>
+      </c>
+      <c r="H102" s="17">
+        <v>3.7999999999999999E-2</v>
+      </c>
+      <c r="I102" s="17">
+        <v>0.1</v>
+      </c>
+      <c r="J102" s="17">
+        <v>0.09</v>
+      </c>
+      <c r="K102" s="17">
+        <v>1.2999999999999999E-2</v>
+      </c>
       <c r="L102" s="17"/>
       <c r="M102" s="17"/>
       <c r="N102" s="17"/>
@@ -4970,13 +5658,27 @@
       <c r="D103" s="8">
         <v>73</v>
       </c>
-      <c r="E103" s="6"/>
-      <c r="F103" s="6"/>
-      <c r="G103" s="17"/>
-      <c r="H103" s="17"/>
-      <c r="I103" s="17"/>
-      <c r="J103" s="17"/>
-      <c r="K103" s="17"/>
+      <c r="E103" s="6">
+        <v>475238.65700000001</v>
+      </c>
+      <c r="F103" s="6">
+        <v>539968.97400000005</v>
+      </c>
+      <c r="G103" s="17">
+        <v>1E-3</v>
+      </c>
+      <c r="H103" s="17">
+        <v>0.124</v>
+      </c>
+      <c r="I103" s="17">
+        <v>3.7999999999999999E-2</v>
+      </c>
+      <c r="J103" s="17">
+        <v>3.5000000000000003E-2</v>
+      </c>
+      <c r="K103" s="17">
+        <v>2.5999999999999999E-2</v>
+      </c>
       <c r="L103" s="17"/>
       <c r="M103" s="17"/>
       <c r="N103" s="17"/>
@@ -5020,13 +5722,27 @@
       <c r="D105" s="8">
         <v>60</v>
       </c>
-      <c r="E105" s="6"/>
-      <c r="F105" s="6"/>
-      <c r="G105" s="17"/>
-      <c r="H105" s="17"/>
-      <c r="I105" s="17"/>
-      <c r="J105" s="17"/>
-      <c r="K105" s="17"/>
+      <c r="E105" s="6">
+        <v>475238.55499999999</v>
+      </c>
+      <c r="F105" s="6">
+        <v>539968.84299999999</v>
+      </c>
+      <c r="G105" s="17">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="H105" s="17">
+        <v>0.30099999999999999</v>
+      </c>
+      <c r="I105" s="17">
+        <v>5.8999999999999997E-2</v>
+      </c>
+      <c r="J105" s="17">
+        <v>0.11</v>
+      </c>
+      <c r="K105" s="17">
+        <v>0.05</v>
+      </c>
       <c r="L105" s="17"/>
       <c r="M105" s="17"/>
       <c r="N105" s="17"/>
@@ -5045,13 +5761,27 @@
       <c r="D106" s="8">
         <v>112</v>
       </c>
-      <c r="E106" s="6"/>
-      <c r="F106" s="6"/>
-      <c r="G106" s="17"/>
-      <c r="H106" s="17"/>
-      <c r="I106" s="17"/>
-      <c r="J106" s="17"/>
-      <c r="K106" s="17"/>
+      <c r="E106" s="6">
+        <v>475239.07</v>
+      </c>
+      <c r="F106" s="6">
+        <v>539968.91399999999</v>
+      </c>
+      <c r="G106" s="17">
+        <v>1E-3</v>
+      </c>
+      <c r="H106" s="17">
+        <v>0.17</v>
+      </c>
+      <c r="I106" s="17">
+        <v>0.04</v>
+      </c>
+      <c r="J106" s="17">
+        <v>3.9E-2</v>
+      </c>
+      <c r="K106" s="17">
+        <v>0.06</v>
+      </c>
       <c r="L106" s="17"/>
       <c r="M106" s="17"/>
       <c r="N106" s="17"/>
@@ -5070,13 +5800,27 @@
       <c r="D107" s="8">
         <v>67</v>
       </c>
-      <c r="E107" s="6"/>
-      <c r="F107" s="6"/>
-      <c r="G107" s="17"/>
-      <c r="H107" s="17"/>
-      <c r="I107" s="17"/>
-      <c r="J107" s="17"/>
-      <c r="K107" s="17"/>
+      <c r="E107" s="6">
+        <v>475238.62099999998</v>
+      </c>
+      <c r="F107" s="6">
+        <v>539968.76599999995</v>
+      </c>
+      <c r="G107" s="17">
+        <v>1E-3</v>
+      </c>
+      <c r="H107" s="17">
+        <v>0.184</v>
+      </c>
+      <c r="I107" s="17">
+        <v>7.4999999999999997E-2</v>
+      </c>
+      <c r="J107" s="17">
+        <v>2.5999999999999999E-2</v>
+      </c>
+      <c r="K107" s="17">
+        <v>2.4E-2</v>
+      </c>
       <c r="L107" s="17"/>
       <c r="M107" s="17"/>
       <c r="N107" s="17"/>
@@ -5105,7 +5849,9 @@
       <c r="L108" s="17"/>
       <c r="M108" s="17"/>
       <c r="N108" s="17"/>
-      <c r="O108" s="17"/>
+      <c r="O108" s="17" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="109" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A109" s="14">
@@ -5120,13 +5866,27 @@
       <c r="D109" s="8">
         <v>66</v>
       </c>
-      <c r="E109" s="6"/>
-      <c r="F109" s="6"/>
-      <c r="G109" s="17"/>
-      <c r="H109" s="17"/>
-      <c r="I109" s="17"/>
-      <c r="J109" s="17"/>
-      <c r="K109" s="17"/>
+      <c r="E109" s="13">
+        <v>475238.61200000002</v>
+      </c>
+      <c r="F109" s="6">
+        <v>539968.875</v>
+      </c>
+      <c r="G109" s="17">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="H109" s="17">
+        <v>0.26900000000000002</v>
+      </c>
+      <c r="I109" s="17">
+        <v>5.8999999999999997E-2</v>
+      </c>
+      <c r="J109" s="17">
+        <v>9.4E-2</v>
+      </c>
+      <c r="K109" s="17">
+        <v>4.9000000000000002E-2</v>
+      </c>
       <c r="L109" s="17"/>
       <c r="M109" s="17"/>
       <c r="N109" s="17"/>
@@ -5155,7 +5915,9 @@
       <c r="L110" s="17"/>
       <c r="M110" s="17"/>
       <c r="N110" s="17"/>
-      <c r="O110" s="17"/>
+      <c r="O110" s="17" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="111" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A111" s="14">
@@ -5180,7 +5942,9 @@
       <c r="L111" s="17"/>
       <c r="M111" s="17"/>
       <c r="N111" s="17"/>
-      <c r="O111" s="17"/>
+      <c r="O111" s="17" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="112" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A112" s="16">
@@ -5284,6 +6048,17 @@
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="B12:D12"/>
+    <mergeCell ref="B37:D37"/>
+    <mergeCell ref="B56:D56"/>
+    <mergeCell ref="B78:D78"/>
+    <mergeCell ref="B98:D98"/>
+    <mergeCell ref="E12:F12"/>
+    <mergeCell ref="G12:K12"/>
+    <mergeCell ref="L12:O12"/>
+    <mergeCell ref="E37:F37"/>
+    <mergeCell ref="G37:K37"/>
+    <mergeCell ref="L37:O37"/>
     <mergeCell ref="E98:F98"/>
     <mergeCell ref="G98:K98"/>
     <mergeCell ref="L98:O98"/>
@@ -5293,17 +6068,6 @@
     <mergeCell ref="E78:F78"/>
     <mergeCell ref="G78:K78"/>
     <mergeCell ref="L78:O78"/>
-    <mergeCell ref="E12:F12"/>
-    <mergeCell ref="G12:K12"/>
-    <mergeCell ref="L12:O12"/>
-    <mergeCell ref="E37:F37"/>
-    <mergeCell ref="G37:K37"/>
-    <mergeCell ref="L37:O37"/>
-    <mergeCell ref="B12:D12"/>
-    <mergeCell ref="B37:D37"/>
-    <mergeCell ref="B56:D56"/>
-    <mergeCell ref="B78:D78"/>
-    <mergeCell ref="B98:D98"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
